--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2412.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2412.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.04245094766027</v>
+        <v>1.252895951271057</v>
       </c>
       <c r="B1">
-        <v>2.125720439198208</v>
+        <v>1.834372878074646</v>
       </c>
       <c r="C1">
-        <v>9.489103322242588</v>
+        <v>4.172325611114502</v>
       </c>
       <c r="D1">
-        <v>1.918646383916877</v>
+        <v>3.209892988204956</v>
       </c>
       <c r="E1">
-        <v>0.9998001922982782</v>
+        <v>1.161930680274963</v>
       </c>
     </row>
   </sheetData>
